--- a/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>趋势</t>
   </si>
@@ -33,6 +33,24 @@
   <si>
     <t>成长阶段分类
 （领头羊、竞争者、机构的宠儿、复苏的公司、落后者或以前的领头羊、周期型公司）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潜在催化剂
+（新产品、新服务或公司新发展） </t>
+  </si>
+  <si>
+    <t>流动性风险</t>
+  </si>
+  <si>
+    <t>收入和销量的激增历史</t>
+  </si>
+  <si>
+    <t>存货与销量比较
+(成品比原材料或半成品增长的快，可能意味着产品滞销;若成品的折旧速度很快，则意味着公司可能要降价销售它们或者其要与新产品抢夺市场)</t>
+  </si>
+  <si>
+    <t>应收分析
+(应收账款增长速度过快，甚至超过销售的速度增长，则可能意味着商品滞销，经销商无法正常回款。当然也有例外，可能是对消费者给予了更高的信誉等级.)</t>
   </si>
   <si>
     <t>技术面</t>
@@ -73,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,6 +119,83 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,15 +210,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,100 +247,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +522,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,21 +577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,15 +598,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -573,172 +606,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,26 +778,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -834,6 +858,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1100,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1111,11 +1140,16 @@
     <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
     <col min="2" max="4" width="33.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.9285714285714" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.9285714285714" customWidth="1"/>
-    <col min="13" max="13" width="5.85714285714286" customWidth="1"/>
+    <col min="7" max="7" width="20.1785714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.9285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="14.9285714285714" customWidth="1"/>
+    <col min="11" max="11" width="14.2857142857143" customWidth="1"/>
+    <col min="12" max="13" width="14.9285714285714" customWidth="1"/>
+    <col min="18" max="18" width="5.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1129,16 +1163,21 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="229" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1152,54 +1191,74 @@
       <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" ht="176" spans="1:13">
+    <row r="3" ht="176" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P1:Q2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
@@ -35,22 +35,22 @@
 （领头羊、竞争者、机构的宠儿、复苏的公司、落后者或以前的领头羊、周期型公司）</t>
   </si>
   <si>
+    <t>收入和销量的激增历史</t>
+  </si>
+  <si>
+    <t>流动性风险</t>
+  </si>
+  <si>
+    <t>存货与销量比较
+(成品比原材料或半成品增长的快，可能意味着产品滞销;若成品的折旧速度很快，则意味着公司可能要降价销售它们或者其要与新产品抢夺市场)</t>
+  </si>
+  <si>
+    <t>应收分析
+(应收账款增长速度过快，甚至超过销售的速度增长，则可能意味着商品滞销，经销商无法正常回款。当然也有例外，可能是对消费者给予了更高的信誉等级.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">潜在催化剂
 （新产品、新服务或公司新发展） </t>
-  </si>
-  <si>
-    <t>流动性风险</t>
-  </si>
-  <si>
-    <t>收入和销量的激增历史</t>
-  </si>
-  <si>
-    <t>存货与销量比较
-(成品比原材料或半成品增长的快，可能意味着产品滞销;若成品的折旧速度很快，则意味着公司可能要降价销售它们或者其要与新产品抢夺市场)</t>
-  </si>
-  <si>
-    <t>应收分析
-(应收账款增长速度过快，甚至超过销售的速度增长，则可能意味着商品滞销，经销商无法正常回款。当然也有例外，可能是对消费者给予了更高的信誉等级.)</t>
   </si>
   <si>
     <t>技术面</t>
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,19 +778,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1131,7 +1122,7 @@
   <sheetPr/>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1140,11 +1131,10 @@
     <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
     <col min="2" max="4" width="33.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.9285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1785714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.9285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
-    <col min="10" max="10" width="14.9285714285714" customWidth="1"/>
-    <col min="11" max="11" width="14.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="9" width="14.9285714285714" customWidth="1"/>
+    <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="14.9285714285714" customWidth="1"/>
     <col min="12" max="13" width="14.9285714285714" customWidth="1"/>
     <col min="18" max="18" width="5.85714285714286" customWidth="1"/>
   </cols>
@@ -1168,7 +1158,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="13"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1191,24 +1181,24 @@
       <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1224,32 +1214,32 @@
       <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
@@ -50,7 +50,7 @@
   </si>
   <si>
     <t xml:space="preserve">潜在催化剂
-（新产品、新服务或公司新发展） </t>
+（从公司公告或官网或其他消息渠道发现公司有新产品、新服务或公司新发展） </t>
   </si>
   <si>
     <t>技术面</t>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/分析步骤.xlsx
@@ -1122,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
